--- a/yabuki-a/PM演習矢吹a/WBS.xlsx
+++ b/yabuki-a/PM演習矢吹a/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="150">
   <si>
     <t>作業項目</t>
     <rPh sb="0" eb="2">
@@ -735,6 +735,13 @@
     <t>2.1.2 スコープ計画</t>
     <rPh sb="10" eb="12">
       <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PJ環境</t>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1068,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection sqref="A1:C62"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1108,6 +1115,9 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
@@ -1115,6 +1125,9 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>

--- a/yabuki-a/PM演習矢吹a/WBS.xlsx
+++ b/yabuki-a/PM演習矢吹a/WBS.xlsx
@@ -286,10 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発表スライド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>発注</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -742,6 +738,16 @@
     <t>PJ環境</t>
     <rPh sb="2" eb="4">
       <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表スライド</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1075,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1116,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1127,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1138,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1149,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1160,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -1168,32 +1174,32 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -1204,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -1215,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -1234,7 +1240,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -1245,7 +1251,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1259,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -1267,10 +1273,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -1281,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1292,7 +1298,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1300,10 +1306,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
@@ -1314,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -1325,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -1333,21 +1339,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -1355,10 +1361,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -1366,10 +1372,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
@@ -1377,10 +1383,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>53</v>
@@ -1388,10 +1394,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -1399,10 +1405,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
@@ -1413,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
@@ -1421,10 +1427,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -1432,10 +1438,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
@@ -1443,10 +1449,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -1454,10 +1460,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -1465,10 +1471,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
@@ -1476,167 +1482,167 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
         <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1644,10 +1650,10 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1655,10 +1661,10 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1666,10 +1672,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1677,15 +1683,15 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -1696,10 +1702,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
@@ -1710,10 +1716,10 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1721,10 +1727,10 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1732,10 +1738,10 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -1743,10 +1749,10 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1754,10 +1760,10 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1765,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/yabuki-a/PM演習矢吹a/WBS.xlsx
+++ b/yabuki-a/PM演習矢吹a/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
   <si>
     <t>作業項目</t>
     <rPh sb="0" eb="2">
@@ -306,10 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト設計書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>納品</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -319,18 +315,6 @@
   </si>
   <si>
     <t>マニュアル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受け入れ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受け入れテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検収</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -696,10 +680,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.3.3.2 テスト設計書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.3.4 納品</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,18 +689,6 @@
   </si>
   <si>
     <t>3.3.4.2 マニュアル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5 受け入れ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5.1 受け入れテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5.2 検収</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -748,6 +716,32 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.4 受け入れ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.4.1 受け入れテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.4.2 検収</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト計画書</t>
+    <rPh sb="3" eb="6">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト報告書</t>
+    <rPh sb="3" eb="6">
+      <t>ホウコクショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1079,16 +1073,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1122,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1133,7 +1127,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1144,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1155,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1166,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -1174,32 +1168,32 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -1210,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -1221,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -1240,7 +1234,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -1251,7 +1245,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1265,7 +1259,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -1273,10 +1267,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -1287,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1298,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1306,10 +1300,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
@@ -1320,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -1331,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -1339,21 +1333,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -1361,10 +1355,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -1372,10 +1366,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
@@ -1383,10 +1377,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>53</v>
@@ -1394,10 +1388,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -1405,10 +1399,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
@@ -1419,7 +1413,7 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
@@ -1427,10 +1421,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -1438,10 +1432,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
@@ -1449,10 +1443,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -1460,10 +1454,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -1471,10 +1465,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
@@ -1482,21 +1476,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -1504,10 +1498,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -1515,10 +1509,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -1526,32 +1520,32 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
@@ -1559,10 +1553,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
@@ -1570,10 +1564,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>67</v>
@@ -1581,10 +1575,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -1592,10 +1586,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -1606,10 +1600,10 @@
         <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1617,10 +1611,10 @@
         <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1628,153 +1622,142 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/yabuki-a/PM演習矢吹a/WBS.xlsx
+++ b/yabuki-a/PM演習矢吹a/WBS.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WBS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C61"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
